--- a/CRMFlexExcel/src/com/fellow/main/Miljo.xlsx
+++ b/CRMFlexExcel/src/com/fellow/main/Miljo.xlsx
@@ -99,27 +99,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -129,19 +114,19 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +424,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
